--- a/Luftschlange-ms-steiner-puw-324769b/ResultadosLP.xlsx
+++ b/Luftschlange-ms-steiner-puw-324769b/ResultadosLP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Instância</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Está no ótimo</t>
+  </si>
+  <si>
+    <t>Tamanho da RL</t>
   </si>
   <si>
     <t>i080-311</t>
@@ -429,13 +432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,44 +454,53 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>26</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>23</v>
@@ -502,27 +514,33 @@
       <c r="E4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>22</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -536,10 +554,13 @@
       <c r="E6">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -553,27 +574,33 @@
       <c r="E7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>25</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>21</v>
@@ -587,10 +614,13 @@
       <c r="E9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>37</v>
@@ -604,10 +634,13 @@
       <c r="E10">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>24</v>
@@ -621,10 +654,13 @@
       <c r="E11">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -638,10 +674,13 @@
       <c r="E12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -655,10 +694,13 @@
       <c r="E13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -672,61 +714,73 @@
       <c r="E14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>24</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>26</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>24</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -740,44 +794,53 @@
       <c r="E18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>24</v>
@@ -791,44 +854,53 @@
       <c r="E21">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>26</v>
       </c>
       <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="D22">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
       <c r="B23">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -840,7 +912,10 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
